--- a/Dataset/Folds/Fold_4/Excel/81.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6782" uniqueCount="969">
   <si>
     <t>Doi</t>
   </si>
@@ -2895,6 +2895,331 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,                           Bin%Huang%NULL%1,                           Hongzhen%Xia%NULL%1,                           Hua%Fan%NULL%1,                           Muxin%Zhu%NULL%1,                           Liping%Zhu%NULL%1,                           Huan%Zhang%NULL%1,                           Xiaogen%Tao%NULL%1,                           Shaohui%Cheng%NULL%1,                           Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                            Tuantuan%Li%NULL%1,                            Mingfeng%Han%NULL%0,                            Xiuyong%Li%NULL%1,                            Dong%Wu%NULL%1,                            Yuanhong%Xu%NULL%1,                            Yulin%Zhu%NULL%1,                            Yan%Liu%NULL%1,                            Xiaowu%Wang%wangxiaowu19880218@126.com%1,                            Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                            Bohan%Yang%NULL%1,                            Qianwen%Li%NULL%1,                            Lu%Wen%NULL%1,                            Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                            Luoqi%Zhou%NULL%1,                            Ziwei%Hu%NULL%1,                            Shuoqi%Zhang%NULL%1,                            Sheng%Yang%NULL%1,                            Yu%Tao%NULL%0,                            Cuihong%Xie%NULL%1,                            Ke%Ma%NULL%0,                            Ke%Shang%NULL%1,                            Wei%Wang%NULL%0,                            Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                            Min%Pan%NULL%0,                            Xiumei%Zhang%NULL%0,                            Mingfeng%Han%fyhmf@163.com%0,                            Xiaoyun%Fan%13956988552@126.com%0,                            Fengde%Zhao%NULL%0,                            Manli%Miao%NULL%0,                            Jing%Xu%NULL%0,                            Minglong%Guan%NULL%0,                            Xia%Deng%NULL%0,                            Xu%Chen%NULL%0,                            Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                            Ting%Cai%NULL%1,                            Lingyan%Fan%NULL%1,                            Kehong%Lou%NULL%1,                            Xin%Hua%NULL%1,                            Zuoan%Huang%NULL%1,                            Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                            Binghong%Zhao%NULL%1,                            Yueming%Qu%NULL%1,                            Yurou%Chen%NULL%1,                            Jie%Xiong%NULL%1,                            Yong%Feng%NULL%2,                            Dong%Men%NULL%1,                            Qianchuan%Huang%NULL%1,                            Ying%Liu%NULL%0,                            Bo%Yang%NULL%0,                            Jinya%Ding%NULL%1,                            Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                            Qiang%Zhang%NULL%1,                            Qing%Li%NULL%1,                            Ting%Wu%NULL%1,                            Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                            Christian%Prebensen%christian.prebensen@gmail.com%1,                            Heidi%Strand%Heidi.Strand@ahus.no%1,                            Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                            Christine M.%Jonassen%chrjon@so-hf.no%1,                            Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                            Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                            Signe%Søvik%signe.sovik@medisin.uio.no%1,                            Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                            My%Svensson%m.h.s.svensson@medisin.uio.no%1,                            Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                            Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                            Marina%de Castro Deus%NULL%1,                            Joao Paulo%Telles%NULL%1,                            Rafael%Wind%NULL%1,                            Marina%Goes%NULL%1,                            Roberta%Garcia Charello Ossoski%NULL%1,                            Alessandra Michalski%de Padua%NULL%1,                            Lucia%de Noronha%NULL%1,                            Andrea%Moreno-Amaral%NULL%1,                            Cristina Pellegrino%Baena%NULL%1,                            Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                            Alberto%Utrero-Rico%NULL%1,                            Paloma%Talayero%NULL%1,                            Maria%Lasa-Lazaro%NULL%1,                            Angel%Ramirez-Fernandez%NULL%1,                            Laura%Naranjo%NULL%1,                            Alejandro%Segura-Tudela%NULL%1,                            Oscar%Cabrera-Marante%NULL%1,                            Edgar%Rodriguez de Frias%NULL%1,                            Rocio%Garcia-Garcia%NULL%1,                            Mario%Fernández-Ruiz%NULL%1,                            Jose Maria%Aguado%NULL%1,                            Joaquin%Martinez-Lopez%NULL%1,                            Elena Ana%Lopez%NULL%1,                            Mercedes%Catalan%NULL%1,                            Antonio%Serrano%NULL%1,                            Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                            Wenbo%He%NULL%1,                            Xiaomei%Yu%NULL%1,                            Dalong%Hu%NULL%1,                            Mingwei%Bao%NULL%1,                            Huafen%Liu%NULL%1,                            Jiali%Zhou%NULL%1,                            Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                            Ruoqi%Ning%NULL%1,                            Yu%Tao%NULL%0,                            Chong%Yu%NULL%2,                            Xiaoyan%Deng%NULL%1,                            Caili%Zhao%NULL%1,                            Silu%Meng%NULL%1,                            Fangxu%Tang%89650793@qq.com%1,                            Dong%Xu%89650793@qq.com%0,                            Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                            Hui%Wang%NULL%0,                            Guangming%Ye%NULL%2,                            Xiaoling%Cao%NULL%1,                            Xianqun%Xu%NULL%1,                            Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                            Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                            Gil%Harari%NULL%1,                            Michael%Gurevich%NULL%1,                            Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                            Carmen M.%Cabrera%NULL%1,                            Natalia%Jiménez%NULL%1,                            Laura%Rincón%NULL%1,                            José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                            Chong%Yu%NULL%0,                            Daoyuan%Yue%NULL%1,                            Xing%Zeng%NULL%1,                            Zhiquan%Hu%NULL%1,                            Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                            Wenwu%Sun%NULL%1,                            Shengrong%Sun%NULL%1,                            Zhiyu%Li%lizhiyu@whu.edu.cn%1,                            Zhong%Wang%zhongwangchn@whu.edu.cn%1,                            Li%Yu%yuliwhzxyy@163.com%2,                            Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                            Jun%Wang%NULL%0,                            Nan%Su%NULL%1,                            Xiebing%Bao%NULL%1,                            Yongsheng%Li%dr_ysli@126.com%1,                            Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                            Jiangang%Jiang%NULL%0,                            Feng%Wang%NULL%0,                            Ning%Zhou%NULL%0,                            Giacomo%Veronese%NULL%0,                            Javid J.%Moslehi%NULL%0,                            Enrico%Ammirati%NULL%0,                            Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                            Chang%Shu%NULL%0,                            Xiao%Ran%NULL%1,                            Cui-Hong%Xie%NULL%1,                            Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                            Chen%Dong%NULL%1,                            Shengzhong%Li%NULL%1,                            Xiaoqing%Song%NULL%1,                            Wang%Wei%NULL%1,                            Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                            Bin%Huang%NULL%1,                            Hongzhen%Xia%NULL%1,                            Hua%Fan%NULL%1,                            Muxin%Zhu%NULL%1,                            Liping%Zhu%NULL%1,                            Huan%Zhang%NULL%1,                            Xiaogen%Tao%NULL%1,                            Shaohui%Cheng%NULL%1,                            Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                             Tuantuan%Li%NULL%1,                             Mingfeng%Han%NULL%0,                             Xiuyong%Li%NULL%1,                             Dong%Wu%NULL%1,                             Yuanhong%Xu%NULL%1,                             Yulin%Zhu%NULL%1,                             Yan%Liu%NULL%1,                             Xiaowu%Wang%wangxiaowu19880218@126.com%1,                             Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                             Bohan%Yang%NULL%1,                             Qianwen%Li%NULL%1,                             Lu%Wen%NULL%1,                             Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                             Luoqi%Zhou%NULL%1,                             Ziwei%Hu%NULL%1,                             Shuoqi%Zhang%NULL%1,                             Sheng%Yang%NULL%1,                             Yu%Tao%NULL%0,                             Cuihong%Xie%NULL%1,                             Ke%Ma%NULL%0,                             Ke%Shang%NULL%1,                             Wei%Wang%NULL%0,                             Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                             Min%Pan%NULL%0,                             Xiumei%Zhang%NULL%0,                             Mingfeng%Han%fyhmf@163.com%0,                             Xiaoyun%Fan%13956988552@126.com%0,                             Fengde%Zhao%NULL%0,                             Manli%Miao%NULL%0,                             Jing%Xu%NULL%0,                             Minglong%Guan%NULL%0,                             Xia%Deng%NULL%0,                             Xu%Chen%NULL%0,                             Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                             Ting%Cai%NULL%1,                             Lingyan%Fan%NULL%1,                             Kehong%Lou%NULL%1,                             Xin%Hua%NULL%1,                             Zuoan%Huang%NULL%1,                             Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                             Binghong%Zhao%NULL%1,                             Yueming%Qu%NULL%1,                             Yurou%Chen%NULL%1,                             Jie%Xiong%NULL%1,                             Yong%Feng%NULL%2,                             Dong%Men%NULL%1,                             Qianchuan%Huang%NULL%1,                             Ying%Liu%NULL%0,                             Bo%Yang%NULL%0,                             Jinya%Ding%NULL%1,                             Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                             Qiang%Zhang%NULL%1,                             Qing%Li%NULL%1,                             Ting%Wu%NULL%1,                             Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                             Christian%Prebensen%christian.prebensen@gmail.com%1,                             Heidi%Strand%Heidi.Strand@ahus.no%1,                             Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                             Christine M.%Jonassen%chrjon@so-hf.no%1,                             Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                             Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                             Signe%Søvik%signe.sovik@medisin.uio.no%1,                             Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                             My%Svensson%m.h.s.svensson@medisin.uio.no%1,                             Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                             Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                             Marina%de Castro Deus%NULL%1,                             Joao Paulo%Telles%NULL%1,                             Rafael%Wind%NULL%1,                             Marina%Goes%NULL%1,                             Roberta%Garcia Charello Ossoski%NULL%1,                             Alessandra Michalski%de Padua%NULL%1,                             Lucia%de Noronha%NULL%1,                             Andrea%Moreno-Amaral%NULL%1,                             Cristina Pellegrino%Baena%NULL%1,                             Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                             Alberto%Utrero-Rico%NULL%1,                             Paloma%Talayero%NULL%1,                             Maria%Lasa-Lazaro%NULL%1,                             Angel%Ramirez-Fernandez%NULL%1,                             Laura%Naranjo%NULL%1,                             Alejandro%Segura-Tudela%NULL%1,                             Oscar%Cabrera-Marante%NULL%1,                             Edgar%Rodriguez de Frias%NULL%1,                             Rocio%Garcia-Garcia%NULL%1,                             Mario%Fernández-Ruiz%NULL%1,                             Jose Maria%Aguado%NULL%1,                             Joaquin%Martinez-Lopez%NULL%1,                             Elena Ana%Lopez%NULL%1,                             Mercedes%Catalan%NULL%1,                             Antonio%Serrano%NULL%1,                             Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                             Di%Wu%NULL%0,                             Huilong%Chen%NULL%0,                             Weiming%Yan%NULL%0,                             Danlei%Yang%NULL%0,                             Guang%Chen%NULL%0,                             Ke%Ma%NULL%0,                             Dong%Xu%NULL%0,                             Haijing%Yu%NULL%0,                             Hongwu%Wang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Guo%NULL%0,                             Jia%Chen%NULL%0,                             Chen%Ding%NULL%0,                             Xiaoping%Zhang%NULL%0,                             Jiaquan%Huang%NULL%0,                             Meifang%Han%NULL%0,                             Shusheng%Li%NULL%0,                             Xiaoping%Luo%NULL%0,                             Jianping%Zhao%NULL%0,                             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                             Wenbo%He%NULL%1,                             Xiaomei%Yu%NULL%1,                             Dalong%Hu%NULL%1,                             Mingwei%Bao%NULL%1,                             Huafen%Liu%NULL%1,                             Jiali%Zhou%NULL%1,                             Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                             Ruoqi%Ning%NULL%1,                             Yu%Tao%NULL%0,                             Chong%Yu%NULL%2,                             Xiaoyan%Deng%NULL%1,                             Caili%Zhao%NULL%1,                             Silu%Meng%NULL%1,                             Fangxu%Tang%89650793@qq.com%1,                             Dong%Xu%89650793@qq.com%0,                             Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                             Hui%Wang%NULL%0,                             Guangming%Ye%NULL%2,                             Xiaoling%Cao%NULL%1,                             Xianqun%Xu%NULL%1,                             Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                             Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                             Gil%Harari%NULL%1,                             Michael%Gurevich%NULL%1,                             Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                             Carmen M.%Cabrera%NULL%1,                             Natalia%Jiménez%NULL%1,                             Laura%Rincón%NULL%1,                             José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                             Chong%Yu%NULL%0,                             Daoyuan%Yue%NULL%1,                             Xing%Zeng%NULL%1,                             Zhiquan%Hu%NULL%1,                             Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                             Wenwu%Sun%NULL%1,                             Shengrong%Sun%NULL%1,                             Zhiyu%Li%lizhiyu@whu.edu.cn%1,                             Zhong%Wang%zhongwangchn@whu.edu.cn%1,                             Li%Yu%yuliwhzxyy@163.com%2,                             Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                             Jun%Wang%NULL%0,                             Nan%Su%NULL%1,                             Xiebing%Bao%NULL%1,                             Yongsheng%Li%dr_ysli@126.com%1,                             Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                             Jiangang%Jiang%NULL%0,                             Feng%Wang%NULL%0,                             Ning%Zhou%NULL%0,                             Giacomo%Veronese%NULL%0,                             Javid J.%Moslehi%NULL%0,                             Enrico%Ammirati%NULL%0,                             Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                             Chang%Shu%NULL%0,                             Xiao%Ran%NULL%1,                             Cui-Hong%Xie%NULL%1,                             Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                             Chen%Dong%NULL%1,                             Shengzhong%Li%NULL%1,                             Xiaoqing%Song%NULL%1,                             Wang%Wei%NULL%1,                             Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                             Bin%Huang%NULL%1,                             Hongzhen%Xia%NULL%1,                             Hua%Fan%NULL%1,                             Muxin%Zhu%NULL%1,                             Liping%Zhu%NULL%1,                             Huan%Zhang%NULL%1,                             Xiaogen%Tao%NULL%1,                             Shaohui%Cheng%NULL%1,                             Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The role of clinical laboratory data in the differential diagnosis of the severe forms of COVID‐19 has not been definitely established.
+ The aim of this study was to look for the warning index in severe COVID‐19 patients.
+ We investigated 43 adult patients with COVID‐19. The patients were classified into mild group (28 patients) and severe group (15 patients).
+ A comparison of the hematological parameters between the mild and severe groups showed significant differences in interleukin‐6 (IL‐6), d‐dimer (d‐D), glucose, thrombin time, fibrinogen, and C‐reactive protein (P &amp;lt; .
+05).
+ The optimal threshold and area under the receiver operator characteristic curve (ROC) of IL‐6 were 24.3 and 0.795 µg/L, respectively, while those of d‐D were 0.28 and 0.750 µg/L, respectively.
+ The area under the ROC curve of IL‐6 combined with d‐D was 0.840. The specificity of predicting the severity of COVID‐19 during IL‐6 and d‐D tandem testing was up to 93.3%, while the sensitivity of IL‐6 and d‐D by parallel test in the severe COVID‐19 was 96.4%.
+ IL‐6 and d‐D were closely related to the occurrence of severe COVID‐19 in the adult patients, and their combined detection had the highest specificity and sensitivity for early prediction of the severity of COVID‐19 patients, which has important clinical value.
+</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0, Tuantuan%Li%NULL%0, Mingfeng%Han%NULL%0, Xiuyong%Li%NULL%0, Dong%Wu%NULL%0, Yuanhong%Xu%NULL%0, Yulin%Zhu%NULL%0, Yan%Liu%NULL%0, Xiaowu%Wang%wangxiaowu19880218@126.com%0, Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%0, Qianwen%Li%NULL%0, Lu%Wen%NULL%0, Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0, Luoqi%Zhou%NULL%0, Ziwei%Hu%NULL%0, Shuoqi%Zhang%NULL%0, Sheng%Yang%NULL%0, Yu%Tao%NULL%0, Cuihong%Xie%NULL%0, Ke%Ma%NULL%0, Ke%Shang%NULL%0, Wei%Wang%NULL%0, Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Do not ignore patients without certain exposure history.
+</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0, Min%Pan%NULL%0, Xiumei%Zhang%NULL%0, Mingfeng%Han%fyhmf@163.com%0, Xiaoyun%Fan%13956988552@126.com%0, Fengde%Zhao%NULL%0, Manli%Miao%NULL%0, Jing%Xu%NULL%0, Minglong%Guan%NULL%0, Xia%Deng%NULL%0, Xu%Chen%NULL%0, Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              • Clinical characteristics and immune-inflammatory parameters were compared between non-severe and severe patients with coronavirus disease 2019 (COVID-19).
+</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%0, Ting%Cai%NULL%1, Lingyan%Fan%NULL%1, Kehong%Lou%NULL%1, Xin%Hua%NULL%1, Zuoan%Huang%NULL%1, Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%0, Binghong%Zhao%NULL%1, Yueming%Qu%NULL%1, Yurou%Chen%NULL%1, Jie%Xiong%NULL%0, Yong%Feng%NULL%0, Dong%Men%NULL%1, Qianchuan%Huang%NULL%1, Ying%Liu%NULL%0, Bo%Yang%NULL%0, Jinya%Ding%NULL%1, Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%0, Qiang%Zhang%NULL%1, Qing%Li%NULL%1, Ting%Wu%NULL%1, Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is available in the text.
+</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%0, Christian%Prebensen%christian.prebensen@gmail.com%1, Heidi%Strand%Heidi.Strand@ahus.no%1, Ragnhild%Røysland%ragnhiro@medisin.uio.no%1, Christine M.%Jonassen%chrjon@so-hf.no%1, Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1, Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1, Signe%Søvik%signe.sovik@medisin.uio.no%1, Helge%Røsjø%helge.rosjo@medisin.uio.no%1, My%Svensson%m.h.s.svensson@medisin.uio.no%1, Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1, Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Inflammatory innate immunity can be described as prognostic factors.
+</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%0, Marina%de Castro Deus%NULL%1, Joao Paulo%Telles%NULL%1, Rafael%Wind%NULL%1, Marina%Goes%NULL%1, Roberta%Garcia Charello Ossoski%NULL%1, Alessandra Michalski%de Padua%NULL%1, Lucia%de Noronha%NULL%1, Andrea%Moreno-Amaral%NULL%1, Cristina Pellegrino%Baena%NULL%1, Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%0, Alberto%Utrero-Rico%NULL%1, Paloma%Talayero%NULL%1, Maria%Lasa-Lazaro%NULL%1, Angel%Ramirez-Fernandez%NULL%1, Laura%Naranjo%NULL%1, Alejandro%Segura-Tudela%NULL%1, Oscar%Cabrera-Marante%NULL%1, Edgar%Rodriguez de Frias%NULL%1, Rocio%Garcia-Garcia%NULL%1, Mario%Fernández-Ruiz%NULL%0, Jose Maria%Aguado%NULL%1, Joaquin%Martinez-Lopez%NULL%1, Elena Ana%Lopez%NULL%1, Mercedes%Catalan%NULL%1, Antonio%Serrano%NULL%1, Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Inc. on behalf of the American Academy of Allergy, Asthma &amp;amp; Immunology</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%0, Huilong%Chen%NULL%0, Weiming%Yan%NULL%0, Danlei%Yang%NULL%0, Guang%Chen%NULL%0, Ke%Ma%NULL%0, Dong%Xu%NULL%0, Haijing%Yu%NULL%0, Hongwu%Wang%NULL%0, Tao%Wang%NULL%0, Wei%Guo%NULL%0, Jia%Chen%NULL%0, Chen%Ding%NULL%0, Xiaoping%Zhang%NULL%0, Jiaquan%Huang%NULL%0, Meifang%Han%NULL%0, Shusheng%Li%NULL%0, Xiaoping%Luo%NULL%0, Jianping%Zhao%NULL%0, Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              COVID-19 in the elderly patients was severe and highly fatal.
+</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0, Wenbo%He%NULL%0, Xiaomei%Yu%NULL%0, Dalong%Hu%NULL%0, Mingwei%Bao%NULL%0, Huafen%Liu%NULL%0, Jiali%Zhou%NULL%0, Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0, Ruoqi%Ning%NULL%0, Yu%Tao%NULL%0, Chong%Yu%NULL%0, Xiaoyan%Deng%NULL%0, Caili%Zhao%NULL%0, Silu%Meng%NULL%0, Fangxu%Tang%89650793@qq.com%0, Dong%Xu%89650793@qq.com%0, Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%0, Hui%Wang%NULL%0, Guangming%Ye%NULL%0, Xiaoling%Cao%NULL%1, Xianqun%Xu%NULL%1, Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1, Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%0, Gil%Harari%NULL%1, Michael%Gurevich%NULL%1, Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The serum IL-6 level is the best marker for the severity of COVID-19 of those tested.
+</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%0, Carmen M.%Cabrera%NULL%1, Natalia%Jiménez%NULL%1, Laura%Rincón%NULL%1, José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%0, Chong%Yu%NULL%0, Daoyuan%Yue%NULL%1, Xing%Zeng%NULL%1, Zhiquan%Hu%NULL%1, Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier España, S.L.U.</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0, Wenwu%Sun%NULL%0, Shengrong%Sun%NULL%0, Zhiyu%Li%lizhiyu@whu.edu.cn%0, Zhong%Wang%zhongwangchn@whu.edu.cn%0, Li%Yu%yuliwhzxyy@163.com%0, Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%0, Jun%Wang%NULL%0, Nan%Su%NULL%0, Xiebing%Bao%NULL%1, Yongsheng%Li%dr_ysli@126.com%0, Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0, Jiangang%Jiang%NULL%0, Feng%Wang%NULL%0, Ning%Zhou%NULL%0, Giacomo%Veronese%NULL%0, Javid J.%Moslehi%NULL%0, Enrico%Ammirati%NULL%0, Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%0, Chang%Shu%NULL%0, Xiao%Ran%NULL%1, Cui-Hong%Xie%NULL%1, Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%0, Chen%Dong%NULL%1, Shengzhong%Li%NULL%1, Xiaoqing%Song%NULL%1, Wang%Wei%NULL%1, Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We aimed to describe the clinical features in coronavirus disease 2019 (COVID-19) cases.
+ We studied 134 critically ill COVID-19 cases from 30 December 2019 to 20 February 2020 in an intensive care unit (ICU) at Wuhan Jinyintan Hospital.
+ Demographics, underlying diseases, therapy strategies and test results were collected and analysed from patients on admission, admission to the ICU and 48 h before death.
+ The non-survivors were older (65.46 (s.
+d.
+ 9.74) vs.
+ 46.45 (s.
+d.
+ 11.09)) and were more likely to have underlying diseases.
+ The blood group distribution of the COVID-19 cases differed from that of the Han population in Wuhan, with type A being 43.85%; type B, 26.92%; type AB, 10% and type O, 19.23%.
+ Non-survivors tend to develop more severe lymphopaenia, with higher C-reactive protein, interleukin-6, procalcitonin, D-dimer levels and gradually increased with time.
+ The clinical manifestations were non-specific.
+ Compared with survivors, non-survivors more likely to have organ function injury, and to receive mechanical ventilation, either invasively or noninvasively.
+ Multiple organ failure and secondary bacterial infection in the later period is worthy of attention.
+</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%0, Bin%Huang%NULL%1, Hongzhen%Xia%NULL%1, Hua%Fan%NULL%1, Muxin%Zhu%NULL%1, Liping%Zhu%NULL%1, Huan%Zhang%NULL%1, Xiaogen%Tao%NULL%1, Shaohui%Cheng%NULL%1, Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
   </si>
 </sst>
 </file>
@@ -3227,28 +3552,28 @@
         <v>43952.0</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>487</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
         <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>689</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -3259,25 +3584,25 @@
         <v>44013.0</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>846</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>628</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
         <v>73</v>
@@ -3294,10 +3619,10 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>921</v>
       </c>
       <c r="E4" t="s">
-        <v>847</v>
+        <v>922</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -3309,10 +3634,10 @@
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5">
@@ -3329,7 +3654,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>848</v>
+        <v>924</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -3341,10 +3666,10 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6">
@@ -3361,7 +3686,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>849</v>
+        <v>926</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -3373,10 +3698,10 @@
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7">
@@ -3387,28 +3712,28 @@
         <v>44013.0</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>492</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>694</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -3419,22 +3744,22 @@
         <v>43867.0</v>
       </c>
       <c r="C8" t="s">
-        <v>820</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>850</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>851</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>823</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>824</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
         <v>73</v>
@@ -3454,10 +3779,10 @@
         <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>927</v>
       </c>
       <c r="E9" t="s">
-        <v>852</v>
+        <v>928</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -3469,10 +3794,10 @@
         <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10">
@@ -3486,10 +3811,10 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>930</v>
       </c>
       <c r="E10" t="s">
-        <v>853</v>
+        <v>931</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -3501,10 +3826,10 @@
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>929</v>
       </c>
     </row>
     <row r="11">
@@ -3521,7 +3846,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>854</v>
+        <v>932</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -3533,10 +3858,10 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12">
@@ -3553,7 +3878,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>855</v>
+        <v>933</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -3565,10 +3890,10 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>934</v>
       </c>
     </row>
     <row r="13">
@@ -3582,10 +3907,10 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>935</v>
       </c>
       <c r="E13" t="s">
-        <v>856</v>
+        <v>936</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -3597,10 +3922,10 @@
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14">
@@ -3614,10 +3939,10 @@
         <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>938</v>
       </c>
       <c r="E14" t="s">
-        <v>857</v>
+        <v>939</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -3629,10 +3954,10 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>940</v>
       </c>
     </row>
     <row r="15">
@@ -3649,7 +3974,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>858</v>
+        <v>941</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -3661,10 +3986,10 @@
         <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>942</v>
       </c>
     </row>
     <row r="16">
@@ -3681,7 +4006,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>859</v>
+        <v>943</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -3693,10 +4018,10 @@
         <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>944</v>
       </c>
     </row>
     <row r="17">
@@ -3710,10 +4035,10 @@
         <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>945</v>
       </c>
       <c r="E17" t="s">
-        <v>860</v>
+        <v>946</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -3725,10 +4050,10 @@
         <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>947</v>
       </c>
     </row>
     <row r="18">
@@ -3745,7 +4070,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>861</v>
+        <v>948</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3757,10 +4082,10 @@
         <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>934</v>
       </c>
     </row>
     <row r="19">
@@ -3777,7 +4102,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>862</v>
+        <v>949</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3789,10 +4114,10 @@
         <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>950</v>
       </c>
     </row>
     <row r="20">
@@ -3809,7 +4134,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>863</v>
+        <v>951</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3821,10 +4146,10 @@
         <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21">
@@ -3841,7 +4166,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>864</v>
+        <v>953</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -3853,10 +4178,10 @@
         <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>934</v>
       </c>
     </row>
     <row r="22">
@@ -3870,10 +4195,10 @@
         <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>954</v>
       </c>
       <c r="E22" t="s">
-        <v>865</v>
+        <v>955</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3885,10 +4210,10 @@
         <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>934</v>
       </c>
     </row>
     <row r="23">
@@ -3905,7 +4230,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>866</v>
+        <v>956</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3917,10 +4242,10 @@
         <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>957</v>
       </c>
     </row>
     <row r="24">
@@ -3937,7 +4262,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>867</v>
+        <v>958</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -3949,10 +4274,10 @@
         <v>132</v>
       </c>
       <c r="I24" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25">
@@ -3969,7 +4294,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>868</v>
+        <v>959</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3981,10 +4306,10 @@
         <v>136</v>
       </c>
       <c r="I25" t="s">
-        <v>653</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>960</v>
       </c>
     </row>
     <row r="26">
@@ -4001,7 +4326,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>869</v>
+        <v>961</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -4013,10 +4338,10 @@
         <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>636</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>73</v>
+        <v>962</v>
       </c>
     </row>
     <row r="27">
@@ -4027,28 +4352,28 @@
         <v>44021.0</v>
       </c>
       <c r="C27" t="s">
-        <v>341</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>511</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
         <v>73</v>
       </c>
       <c r="J27" t="s">
-        <v>689</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -4065,7 +4390,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>870</v>
+        <v>963</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -4077,10 +4402,10 @@
         <v>146</v>
       </c>
       <c r="I28" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>964</v>
       </c>
     </row>
     <row r="29">
@@ -4097,7 +4422,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>871</v>
+        <v>965</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -4109,10 +4434,10 @@
         <v>151</v>
       </c>
       <c r="I29" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30">
@@ -4126,10 +4451,10 @@
         <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>966</v>
       </c>
       <c r="E30" t="s">
-        <v>872</v>
+        <v>967</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
@@ -4141,10 +4466,10 @@
         <v>156</v>
       </c>
       <c r="I30" t="s">
-        <v>631</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
